--- a/Biological Payload Data Consolidator/Project Outputs for BPDC Assembly/BPDC Assembly.xlsx
+++ b/Biological Payload Data Consolidator/Project Outputs for BPDC Assembly/BPDC Assembly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Biological Payload Data Consolidator\Project Outputs for BPDC Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2DB3FA-9FD3-4279-A048-8D7F9DAAB3F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{303200DF-1649-4A84-9C36-757363CB224C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -51,7 +51,7 @@
     <t>LED0</t>
   </si>
   <si>
-    <t>D Schottky</t>
+    <t>Diode 10TQ035</t>
   </si>
   <si>
     <t>B2B-EH-A (LF)(SN)</t>
@@ -105,10 +105,10 @@
     <t>Photosensitive Diode</t>
   </si>
   <si>
-    <t>Typical INFRARED GaAs LED</t>
-  </si>
-  <si>
-    <t>Schottky Diode</t>
+    <t>UVC LED</t>
+  </si>
+  <si>
+    <t>Schottky Rectifier</t>
   </si>
   <si>
     <t>No Description Available</t>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>CC0603KRX7R9BB681</t>
-  </si>
-  <si>
-    <t>150060RS75000</t>
   </si>
   <si>
     <t>CDBA5150-HF</t>
@@ -707,19 +704,19 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>0.63439999999999996</v>
@@ -759,10 +756,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>2.7099999999999999E-2</v>
@@ -785,10 +782,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4">
         <v>2.7E-2</v>
@@ -811,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5">
         <v>0.16350000000000001</v>
@@ -837,10 +834,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6">
         <v>6.0000000000000001E-3</v>
@@ -863,10 +860,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>9.7000000000000003E-2</v>
@@ -889,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8">
         <v>4.4290000000000003E-2</v>
@@ -915,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9">
         <v>9.6000000000000002E-2</v>
@@ -941,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10">
         <v>4.9000000000000002E-2</v>
@@ -967,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <v>4.3900000000000002E-2</v>
@@ -990,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,20 +997,11 @@
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.14000000000000001</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1024,13 +1012,13 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14">
         <v>0.42409999999999998</v>
@@ -1047,13 +1035,13 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>0.14000000000000001</v>
@@ -1076,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>0.19</v>
@@ -1099,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17">
         <v>2.12</v>
@@ -1119,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,16 +1118,16 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19">
         <v>4.3999999999999997E-2</v>
@@ -1156,16 +1144,16 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20">
         <v>4.0000000000000001E-3</v>
@@ -1182,13 +1170,13 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21">
         <v>680</v>
@@ -1208,13 +1196,13 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22">
         <v>330</v>
@@ -1234,16 +1222,16 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23">
         <v>5.6000000000000001E-2</v>
@@ -1260,16 +1248,16 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24">
         <v>0.1769</v>
@@ -1286,16 +1274,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -1312,13 +1300,13 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1338,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28">
         <v>2.4500000000000002</v>
@@ -1378,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29">
         <v>1.57</v>
@@ -1401,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30">
         <v>1.78</v>
@@ -1424,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G31">
         <v>26.98</v>
@@ -1447,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32">
         <v>2.2999999999999998</v>
@@ -1473,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33">
         <v>0.75839999999999996</v>
@@ -1496,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34">
         <v>0.2301</v>
@@ -1519,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35">
         <v>2.78</v>

--- a/Biological Payload Data Consolidator/Project Outputs for BPDC Assembly/BPDC Assembly.xlsx
+++ b/Biological Payload Data Consolidator/Project Outputs for BPDC Assembly/BPDC Assembly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Biological Payload Data Consolidator\Project Outputs for BPDC Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{303200DF-1649-4A84-9C36-757363CB224C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4758F0C8-CC09-4CCA-B4E9-A10481639DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -48,10 +48,10 @@
     <t>Photo Sen</t>
   </si>
   <si>
-    <t>LED0</t>
-  </si>
-  <si>
-    <t>Diode 10TQ035</t>
+    <t>D Schottky</t>
+  </si>
+  <si>
+    <t>B4B-XH-A (LF)(SN)</t>
   </si>
   <si>
     <t>B2B-EH-A (LF)(SN)</t>
@@ -60,6 +60,9 @@
     <t>B3B-EH-A(LF)(SN)</t>
   </si>
   <si>
+    <t>LED</t>
+  </si>
+  <si>
     <t>Header 5</t>
   </si>
   <si>
@@ -105,10 +108,7 @@
     <t>Photosensitive Diode</t>
   </si>
   <si>
-    <t>UVC LED</t>
-  </si>
-  <si>
-    <t>Schottky Rectifier</t>
+    <t>Schottky Diode</t>
   </si>
   <si>
     <t>No Description Available</t>
@@ -168,12 +168,21 @@
     <t>CC0603KRX7R9BB681</t>
   </si>
   <si>
+    <t>SG01S-18</t>
+  </si>
+  <si>
     <t>CDBA5150-HF</t>
   </si>
   <si>
+    <t>B4B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
     <t>B2B-EH-A(LF)(SN)</t>
   </si>
   <si>
+    <t>L944-UV265-2-20</t>
+  </si>
+  <si>
     <t>CRCW0603100MJPEAHR</t>
   </si>
   <si>
@@ -198,6 +207,9 @@
     <t>RC0402JR-070RL</t>
   </si>
   <si>
+    <t>LMR62014XMF/NOPB</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -216,10 +228,13 @@
     <t>6-0805_M</t>
   </si>
   <si>
-    <t>PIN2</t>
+    <t>TO-18</t>
   </si>
   <si>
     <t>CDBA5</t>
+  </si>
+  <si>
+    <t>CONN_B4B-XH-A (LF)(SN)_JST</t>
   </si>
   <si>
     <t>CONN_B2B-EH-A (LF)(SN)_JST</t>
@@ -685,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -698,25 +713,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -724,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -733,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>0.63439999999999996</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="H2">
-        <v>0.63439999999999996</v>
+        <v>0.64449999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -747,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -756,16 +771,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G3">
-        <v>2.7099999999999999E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="H3">
-        <v>5.4199999999999998E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -773,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -782,16 +797,16 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G4">
-        <v>2.7E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="H4">
-        <v>0.27</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -799,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -808,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <v>0.16350000000000001</v>
@@ -825,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -834,16 +849,16 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6">
-        <v>6.0000000000000001E-3</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H6">
-        <v>0.03</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>39</v>
@@ -860,16 +875,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7">
-        <v>9.7000000000000003E-2</v>
+        <v>0.10589999999999999</v>
       </c>
       <c r="H7">
-        <v>9.7000000000000003E-2</v>
+        <v>0.10589999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -886,16 +901,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G8">
-        <v>4.4290000000000003E-2</v>
+        <v>0.1002</v>
       </c>
       <c r="H8">
-        <v>4.4290000000000003E-2</v>
+        <v>0.1002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -903,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -912,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G9">
         <v>9.6000000000000002E-2</v>
@@ -929,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
@@ -938,16 +953,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G10">
-        <v>4.9000000000000002E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="H10">
-        <v>4.9000000000000002E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -955,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
@@ -964,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G11">
         <v>4.3900000000000002E-2</v>
@@ -981,13 +996,22 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="H12">
+        <v>71.349999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -995,13 +1019,22 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="G13">
+        <v>0.42420000000000002</v>
+      </c>
+      <c r="H13">
+        <v>0.42420000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1009,22 +1042,22 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G14">
-        <v>0.42409999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="H14">
-        <v>0.42409999999999998</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1035,19 +1068,19 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G15">
         <v>0.14000000000000001</v>
       </c>
       <c r="H15">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G16">
         <v>0.19</v>
@@ -1087,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G17">
         <v>2.12</v>
@@ -1100,14 +1133,14 @@
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
+      <c r="C18" t="s">
+        <v>48</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,241 +1148,241 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="H19">
-        <v>4.3999999999999997E-2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G20">
-        <v>4.0000000000000001E-3</v>
+        <v>0.24890000000000001</v>
       </c>
       <c r="H20">
-        <v>1.6E-2</v>
+        <v>0.24890000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21">
-        <v>680</v>
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
       </c>
       <c r="G21">
-        <v>0.1</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H21">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F22">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="G22">
-        <v>3.5299999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H22">
-        <v>3.5299999999999998E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="F23">
+        <v>330</v>
       </c>
       <c r="G23">
-        <v>5.6000000000000001E-2</v>
+        <v>3.5299999999999998E-2</v>
       </c>
       <c r="H23">
-        <v>0.112</v>
+        <v>3.5299999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G24">
-        <v>0.1769</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H24">
-        <v>0.70760000000000001</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G25">
-        <v>0.1</v>
+        <v>0.1769</v>
       </c>
       <c r="H25">
-        <v>0.2</v>
+        <v>0.70760000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
       </c>
       <c r="G26">
-        <v>2E-3</v>
+        <v>0.1</v>
       </c>
       <c r="H26">
-        <v>2E-3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H27">
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G28">
-        <v>2.4500000000000002</v>
+        <v>0.66861999999999999</v>
       </c>
       <c r="H28">
-        <v>2.4500000000000002</v>
+        <v>0.66861999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1357,22 +1390,22 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G29">
-        <v>1.57</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H29">
-        <v>15.7</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1380,22 +1413,22 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G30">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="H30">
-        <v>1.78</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,22 +1436,22 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G31">
-        <v>26.98</v>
+        <v>1.71</v>
       </c>
       <c r="H31">
-        <v>53.96</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1432,19 +1465,16 @@
         <v>15</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
         <v>75</v>
       </c>
       <c r="G32">
-        <v>2.2999999999999998</v>
+        <v>35.28</v>
       </c>
       <c r="H32">
-        <v>2.2999999999999998</v>
+        <v>70.56</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,7 +1482,7 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1461,13 +1491,16 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
       </c>
       <c r="G33">
-        <v>0.75839999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H33">
-        <v>0.75839999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,7 +1508,7 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -1484,13 +1517,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G34">
-        <v>0.2301</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="H34">
-        <v>0.2301</v>
+        <v>0.75839999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -1507,12 +1540,35 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G35">
+        <v>0.2301</v>
+      </c>
+      <c r="H35">
+        <v>0.2301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36">
         <v>2.78</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>2.78</v>
       </c>
     </row>

--- a/Biological Payload Data Consolidator/Project Outputs for BPDC Assembly/BPDC Assembly.xlsx
+++ b/Biological Payload Data Consolidator/Project Outputs for BPDC Assembly/BPDC Assembly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\Biological Payload Data Consolidator\Project Outputs for BPDC Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4758F0C8-CC09-4CCA-B4E9-A10481639DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17A15291-744B-4D0A-8ABE-C20B0AB85331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -48,18 +48,18 @@
     <t>Photo Sen</t>
   </si>
   <si>
-    <t>D Schottky</t>
+    <t>CDBA5150-HF</t>
+  </si>
+  <si>
+    <t>B2B-EH-A (LF)(SN)</t>
+  </si>
+  <si>
+    <t>B3B-EH-A(LF)(SN)</t>
   </si>
   <si>
     <t>B4B-XH-A (LF)(SN)</t>
   </si>
   <si>
-    <t>B2B-EH-A (LF)(SN)</t>
-  </si>
-  <si>
-    <t>B3B-EH-A(LF)(SN)</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -72,6 +72,9 @@
     <t>LMR62014XMF/NOPD</t>
   </si>
   <si>
+    <t>SSCMNNN030PA2A3</t>
+  </si>
+  <si>
     <t>PIC18LF45K50-I/PT</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
     <t>MCP2515-I/SO</t>
   </si>
   <si>
-    <t>SSCMNNN030PA2A3</t>
-  </si>
-  <si>
     <t>TCAN334DR</t>
   </si>
   <si>
@@ -108,13 +108,10 @@
     <t>Photosensitive Diode</t>
   </si>
   <si>
-    <t>Schottky Diode</t>
-  </si>
-  <si>
     <t>No Description Available</t>
   </si>
   <si>
-    <t>SMD-Shielded Power Inductor WE-PD, L = 10.0 µH</t>
+    <t>Power Multilayer Inductor WE-MAPI, L=10.0µH</t>
   </si>
   <si>
     <t>Header, 5-Pin</t>
@@ -171,18 +168,18 @@
     <t>SG01S-18</t>
   </si>
   <si>
-    <t>CDBA5150-HF</t>
+    <t>B2B-EH-A(LF)(SN)</t>
   </si>
   <si>
     <t>B4B-XH-A(LF)(SN)</t>
   </si>
   <si>
-    <t>B2B-EH-A(LF)(SN)</t>
-  </si>
-  <si>
     <t>L944-UV265-2-20</t>
   </si>
   <si>
+    <t>B5B-XH-A-(LF)(SN)</t>
+  </si>
+  <si>
     <t>CRCW0603100MJPEAHR</t>
   </si>
   <si>
@@ -234,24 +231,30 @@
     <t>CDBA5</t>
   </si>
   <si>
+    <t>CONN_B2B-EH-A (LF)(SN)_JST</t>
+  </si>
+  <si>
+    <t>CONN3_B3B-EH-A(LF)(SN)_JST</t>
+  </si>
+  <si>
     <t>CONN_B4B-XH-A (LF)(SN)_JST</t>
   </si>
   <si>
-    <t>CONN_B2B-EH-A (LF)(SN)_JST</t>
-  </si>
-  <si>
-    <t>CONN3_B3B-EH-A(LF)(SN)_JST</t>
-  </si>
-  <si>
-    <t>WE-PD-L</t>
+    <t>SMD 2510</t>
   </si>
   <si>
     <t>HDR1X5</t>
   </si>
   <si>
+    <t>CONN_B5B-XH-A (LF)(SN)_JST</t>
+  </si>
+  <si>
     <t>SOT95P280X145-5N</t>
   </si>
   <si>
+    <t>SSCMNN_HNW-L</t>
+  </si>
+  <si>
     <t>MCHP-TQFP-PT44_L</t>
   </si>
   <si>
@@ -259,9 +262,6 @@
   </si>
   <si>
     <t>SOIC-SO18_L</t>
-  </si>
-  <si>
-    <t>SSCMNN_HNW-M</t>
   </si>
   <si>
     <t>D0008A_N</t>
@@ -700,7 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -716,13 +716,13 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>80</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>0.64449999999999996</v>
+        <v>0.69</v>
       </c>
       <c r="H2">
-        <v>0.64449999999999996</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -765,22 +765,22 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>81</v>
       </c>
       <c r="G3">
-        <v>3.5000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="H3">
-        <v>7.0000000000000001E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -791,22 +791,22 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
         <v>82</v>
       </c>
       <c r="G4">
-        <v>2.5700000000000001E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="H4">
-        <v>0.25700000000000001</v>
+        <v>6.93E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -817,22 +817,22 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
       </c>
       <c r="G5">
-        <v>0.16350000000000001</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="H5">
-        <v>0.16350000000000001</v>
+        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -843,22 +843,22 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
         <v>84</v>
       </c>
       <c r="G6">
-        <v>1.9E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="H6">
-        <v>0.19</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,22 +869,22 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
         <v>85</v>
       </c>
       <c r="G7">
-        <v>0.10589999999999999</v>
+        <v>0.1036</v>
       </c>
       <c r="H7">
-        <v>0.10589999999999999</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -895,22 +895,22 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
         <v>86</v>
       </c>
       <c r="G8">
-        <v>0.1002</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="H8">
-        <v>0.1002</v>
+        <v>9.8299999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,13 +921,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
         <v>87</v>
@@ -947,22 +947,22 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
       </c>
       <c r="G10">
-        <v>4.8300000000000003E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="H10">
-        <v>4.8300000000000003E-2</v>
+        <v>1.44E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -973,22 +973,22 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
       </c>
       <c r="G11">
-        <v>4.3900000000000002E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="H11">
-        <v>4.3900000000000002E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -999,19 +999,19 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12">
-        <v>71.349999999999994</v>
+        <v>49.32</v>
       </c>
       <c r="H12">
-        <v>71.349999999999994</v>
+        <v>49.32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1022,13 +1022,13 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13">
         <v>0.42420000000000002</v>
@@ -1042,22 +1042,22 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14">
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H14">
-        <v>0.21</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1065,22 +1065,22 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="H15">
-        <v>0.7</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1088,45 +1088,45 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="H16">
-        <v>0.56999999999999995</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>74477110</v>
+        <v>74438323100</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>74477110</v>
+        <v>74438323100</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17">
-        <v>2.12</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H17">
-        <v>2.12</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1134,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1148,39 +1148,36 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G20">
-        <v>0.24890000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="H20">
-        <v>0.24890000000000001</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1188,25 +1185,25 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21">
-        <v>1.2E-2</v>
+        <v>0.25519999999999998</v>
       </c>
       <c r="H21">
-        <v>0.12</v>
+        <v>0.25519999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1214,25 +1211,25 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22">
-        <v>680</v>
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
       </c>
       <c r="G22">
-        <v>0.1</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H22">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1240,10 +1237,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1252,13 +1249,13 @@
         <v>62</v>
       </c>
       <c r="F23">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="G23">
-        <v>3.5299999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H23">
-        <v>3.5299999999999998E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1266,25 +1263,25 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
       </c>
-      <c r="F24" t="s">
-        <v>92</v>
+      <c r="F24">
+        <v>330</v>
       </c>
       <c r="G24">
-        <v>5.6000000000000001E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H24">
-        <v>0.112</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1292,25 +1289,25 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25">
-        <v>0.1769</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="H25">
-        <v>0.70760000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1318,25 +1315,25 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G26">
-        <v>0.1</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H26">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1344,231 +1341,257 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
       </c>
-      <c r="F27">
-        <v>0</v>
+      <c r="F27" t="s">
+        <v>94</v>
       </c>
       <c r="G27">
-        <v>9.8000000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H27">
-        <v>9.8000000000000004E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.66861999999999999</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H28">
-        <v>0.66861999999999999</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29">
-        <v>2.4500000000000002</v>
+        <v>0.81764999999999999</v>
       </c>
       <c r="H29">
-        <v>2.4500000000000002</v>
+        <v>0.81764999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30">
-        <v>1.71</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>15.42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31">
-        <v>1.71</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H31">
-        <v>1.71</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32">
-        <v>35.28</v>
+        <v>1.57</v>
       </c>
       <c r="H32">
-        <v>70.56</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G33">
-        <v>2.2999999999999998</v>
+        <v>1.79</v>
       </c>
       <c r="H33">
-        <v>2.2999999999999998</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
       </c>
       <c r="G34">
-        <v>0.75839999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H34">
-        <v>0.75839999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35">
-        <v>0.2301</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="H35">
-        <v>0.2301</v>
+        <v>0.75839999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36">
+        <v>0.2301</v>
+      </c>
+      <c r="H36">
+        <v>0.2301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>79</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>2.78</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>2.78</v>
       </c>
     </row>
